--- a/msff/xls/job_satisfaction_predictor.xlsx
+++ b/msff/xls/job_satisfaction_predictor.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repo1\msff\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repsc\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AFB725-9505-42DE-B81D-D8157FA6F74F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-120" windowWidth="28560" windowHeight="16440"/>
+    <workbookView xWindow="870" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HP</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>GS</t>
   </si>
@@ -209,9 +210,6 @@
     <t>MLP</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>0 [d]</t>
   </si>
   <si>
@@ -279,9 +277,6 @@
     <t>Note all ratings are 0-5 unless otherwise stated</t>
   </si>
   <si>
-    <t>10 [d,e]</t>
-  </si>
-  <si>
     <t>3 #bonus</t>
   </si>
   <si>
@@ -298,12 +293,6 @@
   </si>
   <si>
     <t>7) traction with IV ]  spare time</t>
-  </si>
-  <si>
-    <t>.. per adv #理论,absorbency,细致,,</t>
-  </si>
-  <si>
-    <t>..Team calibre #mtv;localSys,fast,</t>
   </si>
   <si>
     <t>traction, engaging[a] #NO long-term impact
@@ -352,33 +341,13 @@
     <t>[h] this is NOT (like mktDepth) about number of jobs</t>
   </si>
   <si>
-    <t>1 #py,devops</t>
-  </si>
-  <si>
     <t>4 #exec</t>
-  </si>
-  <si>
-    <t>$$$ $$</t>
   </si>
   <si>
     <t>$$$ $</t>
   </si>
   <si>
     <t>4++ #5M short</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">$$$ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>$$$</t>
-    </r>
   </si>
   <si>
     <t>4++</t>
@@ -393,9 +362,6 @@
     <t>rmSelf in retrospect (0-10)</t>
   </si>
   <si>
-    <t>.. cf: benefits # additional pay,med,leave</t>
-  </si>
-  <si>
     <t>[i] see https://btv-gz.dreamhosters.com/42801/primary-lang-ft_job-has-good-demand/</t>
   </si>
   <si>
@@ -403,9 +369,6 @@
   </si>
   <si>
     <t>5 # peer/ boss rating</t>
-  </si>
-  <si>
-    <t>[3] work-life-balance=workload/intensity, considering teammates  speed; bonus mtv; timeline; demanding external parties</t>
   </si>
   <si>
     <t>5 [c]</t>
@@ -429,9 +392,6 @@
     <t>2&gt;4</t>
   </si>
   <si>
-    <t>5&gt;4 #重任</t>
-  </si>
-  <si>
     <t>3&gt;2 #af 12M</t>
   </si>
   <si>
@@ -444,23 +404,60 @@
     <t>1 #detailed</t>
   </si>
   <si>
+    <t>10&gt;9</t>
+  </si>
+  <si>
+    <t>.. per adv #理论,absorbency,细致,localsys,,</t>
+  </si>
+  <si>
+    <t>..Team calibre #mtv;localSys,fast,细致,,</t>
+  </si>
+  <si>
+    <t>2&gt;3&gt;4</t>
+  </si>
+  <si>
     <r>
-      <t>2</t>
+      <t xml:space="preserve">$$$ </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF92D050"/>
         <rFont val="Arial Narrow"/>
         <family val="2"/>
       </rPr>
-      <t>&gt;3</t>
+      <t>$</t>
     </r>
+  </si>
+  <si>
+    <t>.. cf: benefits #bonus, bx,leave,,,</t>
+  </si>
+  <si>
+    <t>[3] work-life-balance=workload/intensity, considering teammates  speed; bonus mtv; timeline; flexible hours; demanding external parties</t>
+  </si>
+  <si>
+    <t>5&gt;4&gt;3#重任</t>
+  </si>
+  <si>
+    <t>10&gt;9 [d,e]</t>
+  </si>
+  <si>
+    <t>E#3seg</t>
+  </si>
+  <si>
+    <t>1#py,devops</t>
+  </si>
+  <si>
+    <t>4&gt;5</t>
+  </si>
+  <si>
+    <t>5&gt;3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -749,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -877,9 +874,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -916,6 +910,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1019,6 +1019,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1054,6 +1071,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1229,19 +1263,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="0.85546875" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="60" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="59" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1294,7 +1328,7 @@
       <c r="M1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="62"/>
+      <c r="N1" s="61"/>
       <c r="O1" s="39"/>
       <c r="P1" s="39"/>
       <c r="Q1" s="39"/>
@@ -1313,10 +1347,10 @@
     <row r="2" spans="1:28" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
-      <c r="C2" s="5">
-        <v>10</v>
+      <c r="C2" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="D2" s="5">
         <v>8</v>
@@ -1348,7 +1382,7 @@
       <c r="M2" s="4">
         <v>9</v>
       </c>
-      <c r="N2" s="63"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1367,7 +1401,7 @@
     <row r="3" spans="1:28" ht="33">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
@@ -1397,12 +1431,12 @@
         <v>34</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="64"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1433,12 +1467,12 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="63"/>
+      <c r="N4" s="62"/>
       <c r="O4" s="22" t="s">
         <v>44</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1456,10 +1490,10 @@
     <row r="5" spans="1:28" ht="33">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -1468,13 +1502,13 @@
         <v>47</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>30</v>
@@ -1483,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L5" s="4">
         <v>5</v>
@@ -1491,7 +1525,7 @@
       <c r="M5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="63"/>
+      <c r="N5" s="62"/>
       <c r="O5" s="20" t="s">
         <v>41</v>
       </c>
@@ -1514,10 +1548,10 @@
     <row r="6" spans="1:28" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="25" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1547,9 +1581,9 @@
         <v>5</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
-      <c r="N6" s="65"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1572,10 +1606,10 @@
     <row r="7" spans="1:28" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="25" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
-      <c r="C7" s="57" t="s">
-        <v>128</v>
+      <c r="C7" s="71" t="s">
+        <v>121</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -1584,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -1607,7 +1641,7 @@
       <c r="M7" s="6">
         <v>4</v>
       </c>
-      <c r="N7" s="66"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1626,7 +1660,7 @@
     <row r="8" spans="1:28" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="19">
         <v>5</v>
@@ -1635,13 +1669,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
@@ -1650,18 +1684,18 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="5">
         <v>3</v>
       </c>
       <c r="L8" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
-      <c r="N8" s="66"/>
+      <c r="N8" s="65"/>
       <c r="O8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1684,10 +1718,10 @@
     <row r="9" spans="1:28" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -1714,12 +1748,12 @@
         <v>13</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
-      <c r="N9" s="63"/>
+      <c r="N9" s="62"/>
       <c r="O9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1742,7 +1776,7 @@
     <row r="10" spans="1:28" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -1757,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="4">
         <v>2</v>
@@ -1777,7 +1811,7 @@
       <c r="M10" s="4">
         <v>1</v>
       </c>
-      <c r="N10" s="63"/>
+      <c r="N10" s="62"/>
       <c r="O10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1800,42 +1834,42 @@
     <row r="11" spans="1:28" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H11" s="5">
         <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J11" s="4">
         <v>5</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
-      <c r="N11" s="63"/>
+      <c r="N11" s="62"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1854,22 +1888,22 @@
     <row r="12" spans="1:28" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="53" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="4">
         <v>8</v>
@@ -1889,7 +1923,7 @@
       <c r="M12" s="4">
         <v>7</v>
       </c>
-      <c r="N12" s="63"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1908,42 +1942,42 @@
     <row r="13" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="46" t="s">
-        <v>54</v>
+      <c r="I13" s="23" t="s">
+        <v>73</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="K13" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>70</v>
+      <c r="L13" s="23" t="s">
+        <v>69</v>
       </c>
-      <c r="H13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="23" t="s">
+      <c r="M13" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="67"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
       <c r="Q13" s="26"/>
@@ -1962,10 +1996,10 @@
     <row r="14" spans="1:28" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
-      <c r="C14" s="5">
-        <v>5</v>
+      <c r="C14" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -1977,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H14" s="4">
         <v>3</v>
@@ -1986,18 +2020,18 @@
         <v>2</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
-      <c r="N14" s="63"/>
+      <c r="N14" s="62"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2016,10 +2050,10 @@
     <row r="15" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
-      <c r="C15" s="28">
-        <v>3</v>
+      <c r="C15" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="D15" s="28">
         <v>4</v>
@@ -2051,7 +2085,7 @@
       <c r="M15" s="28">
         <v>3</v>
       </c>
-      <c r="N15" s="63"/>
+      <c r="N15" s="62"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
       <c r="Q15" s="26"/>
@@ -2068,12 +2102,12 @@
       <c r="AB15" s="26"/>
     </row>
     <row r="16" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71" t="s">
-        <v>113</v>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70" t="s">
+        <v>105</v>
       </c>
-      <c r="C16" s="33">
-        <v>4</v>
+      <c r="C16" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="D16" s="33">
         <v>5</v>
@@ -2105,7 +2139,7 @@
       <c r="M16" s="33">
         <v>5</v>
       </c>
-      <c r="N16" s="68"/>
+      <c r="N16" s="67"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
@@ -2124,10 +2158,10 @@
     <row r="17" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
-      <c r="C17" s="33">
-        <v>3</v>
+      <c r="C17" s="72">
+        <v>1</v>
       </c>
       <c r="D17" s="33">
         <v>2</v>
@@ -2159,7 +2193,7 @@
       <c r="M17" s="33">
         <v>3</v>
       </c>
-      <c r="N17" s="68"/>
+      <c r="N17" s="67"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
@@ -2189,7 +2223,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="63"/>
+      <c r="N18" s="62"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2208,10 +2242,10 @@
     <row r="19" spans="1:28" ht="33">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
-      <c r="C19" s="58">
-        <v>3</v>
+      <c r="C19" s="57" t="s">
+        <v>112</v>
       </c>
       <c r="D19" s="48">
         <v>2</v>
@@ -2219,7 +2253,7 @@
       <c r="E19" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="72" t="s">
+      <c r="F19" s="73" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
@@ -2243,7 +2277,7 @@
       <c r="M19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="63"/>
+      <c r="N19" s="62"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2273,7 +2307,7 @@
       <c r="E20" s="52">
         <v>4</v>
       </c>
-      <c r="F20" s="73"/>
+      <c r="F20" s="74"/>
       <c r="G20" s="12">
         <v>1</v>
       </c>
@@ -2293,7 +2327,7 @@
       <c r="M20" s="4">
         <v>2</v>
       </c>
-      <c r="N20" s="63"/>
+      <c r="N20" s="62"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2312,10 +2346,10 @@
     <row r="21" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="31"/>
       <c r="B21" s="44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
-      <c r="C21" s="36">
-        <v>5</v>
+      <c r="C21" s="36" t="s">
+        <v>130</v>
       </c>
       <c r="D21" s="35">
         <v>3</v>
@@ -2341,11 +2375,11 @@
       <c r="K21" s="36">
         <v>3</v>
       </c>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="75"/>
-      <c r="N21" s="69"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="68"/>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="34"/>
@@ -2375,7 +2409,7 @@
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
-      <c r="N22" s="63"/>
+      <c r="N22" s="62"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
@@ -2394,9 +2428,9 @@
     <row r="23" spans="1:28" s="29" customFormat="1" ht="16.5">
       <c r="A23" s="26"/>
       <c r="B23" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="28" t="s">
@@ -2429,7 +2463,7 @@
       <c r="M23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="63"/>
+      <c r="N23" s="62"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
       <c r="Q23" s="26"/>
@@ -2463,7 +2497,7 @@
       </c>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
-      <c r="N24" s="63"/>
+      <c r="N24" s="62"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
@@ -2485,17 +2519,29 @@
         <v>25</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="28">
+        <v>1</v>
+      </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="G25" s="28">
+        <v>1</v>
+      </c>
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="63"/>
+      <c r="J25" s="28">
+        <v>2</v>
+      </c>
+      <c r="K25" s="28">
+        <v>1</v>
+      </c>
+      <c r="L25" s="28">
+        <v>2</v>
+      </c>
+      <c r="M25" s="28">
+        <v>1</v>
+      </c>
+      <c r="N25" s="62"/>
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
       <c r="Q25" s="26"/>
@@ -2544,7 +2590,7 @@
     <row r="27" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="26"/>
       <c r="B27" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -2576,7 +2622,7 @@
     <row r="28" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -2608,7 +2654,7 @@
     <row r="29" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -2640,7 +2686,7 @@
     <row r="30" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="26"/>
       <c r="B30" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
@@ -2672,7 +2718,7 @@
     <row r="31" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="26"/>
       <c r="B31" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
@@ -2704,7 +2750,7 @@
     <row r="32" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="26"/>
       <c r="B32" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -2736,7 +2782,7 @@
     <row r="33" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="26"/>
       <c r="B33" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
@@ -2768,7 +2814,7 @@
     <row r="34" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="26"/>
       <c r="B34" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -2800,7 +2846,7 @@
     <row r="35" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -2832,7 +2878,7 @@
     <row r="36" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="26" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -2864,7 +2910,7 @@
     <row r="37" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="26"/>
       <c r="B37" s="43" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
@@ -2896,7 +2942,7 @@
     <row r="38" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
@@ -2928,7 +2974,7 @@
     <row r="39" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -2958,14 +3004,14 @@
       <c r="AB39" s="26"/>
     </row>
     <row r="40" spans="1:28" ht="15" customHeight="1">
-      <c r="B40" s="61" t="s">
-        <v>91</v>
+      <c r="B40" s="60" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="26"/>
       <c r="B41" s="26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
@@ -2997,7 +3043,7 @@
     <row r="42" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="26"/>
       <c r="B42" s="26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>

--- a/msff/xls/job_satisfaction_predictor.xlsx
+++ b/msff/xls/job_satisfaction_predictor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0x\repos\repsc\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AFB725-9505-42DE-B81D-D8157FA6F74F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCC8BB-2D24-474A-BA67-931BAACA36E6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="870" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>GS</t>
   </si>
@@ -270,10 +270,6 @@
     <t>F→A</t>
   </si>
   <si>
-    <t>8 despite 
-MktDepth</t>
-  </si>
-  <si>
     <t>Note all ratings are 0-5 unless otherwise stated</t>
   </si>
   <si>
@@ -359,9 +355,6 @@
     <t>xpSelf's satisfication  (0-10)</t>
   </si>
   <si>
-    <t>rmSelf in retrospect (0-10)</t>
-  </si>
-  <si>
     <t>[i] see https://btv-gz.dreamhosters.com/42801/primary-lang-ft_job-has-good-demand/</t>
   </si>
   <si>
@@ -436,9 +429,6 @@
     <t>[3] work-life-balance=workload/intensity, considering teammates  speed; bonus mtv; timeline; flexible hours; demanding external parties</t>
   </si>
   <si>
-    <t>5&gt;4&gt;3#重任</t>
-  </si>
-  <si>
     <t>10&gt;9 [d,e]</t>
   </si>
   <si>
@@ -452,6 +442,16 @@
   </si>
   <si>
     <t>5&gt;3</t>
+  </si>
+  <si>
+    <t>9 despite 
+MktDepth</t>
+  </si>
+  <si>
+    <t>rmSelf (0-10) #$重要?</t>
+  </si>
+  <si>
+    <t>5&gt;3#重任</t>
   </si>
 </sst>
 </file>
@@ -1267,8 +1267,8 @@
   <dimension ref="A1:AB1005"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1347,10 +1347,10 @@
     <row r="2" spans="1:28" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2" s="5">
         <v>8</v>
@@ -1401,13 +1401,13 @@
     <row r="3" spans="1:28" ht="33">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="4">
-        <v>8</v>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>49</v>
@@ -1428,10 +1428,10 @@
         <v>8</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="M3" s="16" t="s">
         <v>33</v>
@@ -1472,7 +1472,7 @@
         <v>44</v>
       </c>
       <c r="P4" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1490,10 +1490,10 @@
     <row r="5" spans="1:28" ht="33">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -1505,10 +1505,10 @@
         <v>66</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>30</v>
@@ -1517,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L5" s="4">
         <v>5</v>
@@ -1548,10 +1548,10 @@
     <row r="6" spans="1:28" ht="16.5">
       <c r="A6" s="1"/>
       <c r="B6" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1581,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="1" t="s">
@@ -1606,10 +1606,10 @@
     <row r="7" spans="1:28" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -1660,7 +1660,7 @@
     <row r="8" spans="1:28" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="19">
         <v>5</v>
@@ -1693,7 +1693,7 @@
         <v>63</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N8" s="65"/>
       <c r="O8" s="1" t="s">
@@ -1718,10 +1718,10 @@
     <row r="9" spans="1:28" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -1748,10 +1748,10 @@
         <v>13</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9" s="62"/>
       <c r="O9" s="1" t="s">
@@ -1776,7 +1776,7 @@
     <row r="10" spans="1:28" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -1791,7 +1791,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="4">
         <v>2</v>
@@ -1834,40 +1834,40 @@
     <row r="11" spans="1:28" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H11" s="5">
         <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J11" s="4">
         <v>5</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N11" s="62"/>
       <c r="O11" s="1"/>
@@ -1888,10 +1888,10 @@
     <row r="12" spans="1:28" ht="16.5">
       <c r="A12" s="1"/>
       <c r="B12" s="53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>52</v>
@@ -1942,13 +1942,13 @@
     <row r="13" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="26"/>
       <c r="B13" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>68</v>
@@ -1996,10 +1996,10 @@
     <row r="14" spans="1:28" ht="16.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4">
         <v>3</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H14" s="4">
         <v>3</v>
@@ -2020,16 +2020,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" s="62"/>
       <c r="O14" s="1"/>
@@ -2050,10 +2050,10 @@
     <row r="15" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="28">
         <v>4</v>
@@ -2104,10 +2104,10 @@
     <row r="16" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="69"/>
       <c r="B16" s="70" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D16" s="33">
         <v>5</v>
@@ -2158,13 +2158,13 @@
     <row r="17" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="31"/>
       <c r="B17" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="72">
         <v>1</v>
       </c>
-      <c r="D17" s="33">
-        <v>2</v>
+      <c r="D17" s="72" t="s">
+        <v>111</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>22</v>
@@ -2242,10 +2242,10 @@
     <row r="19" spans="1:28" ht="33">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" s="48">
         <v>2</v>
@@ -2346,10 +2346,10 @@
     <row r="21" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="31"/>
       <c r="B21" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D21" s="35">
         <v>3</v>
@@ -2428,7 +2428,7 @@
     <row r="23" spans="1:28" s="29" customFormat="1" ht="16.5">
       <c r="A23" s="26"/>
       <c r="B23" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="58" t="s">
         <v>20</v>
@@ -2590,7 +2590,7 @@
     <row r="27" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="26"/>
       <c r="B27" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
@@ -2622,7 +2622,7 @@
     <row r="28" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="26"/>
       <c r="B28" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
@@ -2846,7 +2846,7 @@
     <row r="35" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="26"/>
       <c r="B35" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
@@ -2878,7 +2878,7 @@
     <row r="36" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="26"/>
       <c r="B36" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
@@ -2910,7 +2910,7 @@
     <row r="37" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="26"/>
       <c r="B37" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
@@ -2942,7 +2942,7 @@
     <row r="38" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="26"/>
       <c r="B38" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
@@ -2974,7 +2974,7 @@
     <row r="39" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="26"/>
       <c r="B39" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="40" spans="1:28" ht="15" customHeight="1">
       <c r="B40" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="26"/>
       <c r="B41" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
@@ -3043,7 +3043,7 @@
     <row r="42" spans="1:28" s="29" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="26"/>
       <c r="B42" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
